--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>62.720978025237251</v>
+        <v>62.720978028879202</v>
       </c>
       <c r="C2">
-        <v>65.584567205103795</v>
+        <v>65.584567205119711</v>
       </c>
       <c r="D2">
-        <v>51.620103635041872</v>
+        <v>51.620103623900327</v>
       </c>
       <c r="E2">
-        <v>68.470789191097367</v>
+        <v>68.47078918206482</v>
       </c>
       <c r="F2">
-        <v>43.481408860893026</v>
+        <v>43.481408845643749</v>
       </c>
       <c r="G2">
-        <v>55.59405343527088</v>
+        <v>55.594053431030012</v>
       </c>
       <c r="H2">
-        <v>47.041147261298228</v>
+        <v>47.041147255424484</v>
       </c>
       <c r="I2">
-        <v>57.966864380053174</v>
+        <v>57.966864376996618</v>
       </c>
       <c r="J2">
-        <v>65.663252695699271</v>
+        <v>65.66325268600329</v>
       </c>
       <c r="K2">
-        <v>53.674195403509742</v>
+        <v>53.674195393183183</v>
       </c>
       <c r="L2">
-        <v>51.870634104790888</v>
+        <v>51.870634108130155</v>
       </c>
       <c r="M2">
-        <v>65.215793443310858</v>
+        <v>65.215793446084675</v>
       </c>
       <c r="N2">
-        <v>60.658377868331605</v>
+        <v>60.6583778673618</v>
       </c>
       <c r="O2">
-        <v>46.756689504612332</v>
+        <v>46.75668948809188</v>
       </c>
       <c r="P2">
-        <v>57.324628029865885</v>
+        <v>57.324628030959829</v>
       </c>
       <c r="Q2">
-        <v>59.963764301521678</v>
+        <v>59.963764296316747</v>
       </c>
       <c r="R2">
-        <v>53.719528782944963</v>
+        <v>53.719528762676511</v>
       </c>
       <c r="S2">
-        <v>81.820196869039037</v>
+        <v>81.820196885201142</v>
       </c>
       <c r="T2">
-        <v>62.79447133849132</v>
+        <v>62.794471346112644</v>
       </c>
       <c r="U2">
-        <v>57.699218310984605</v>
+        <v>57.699218290869233</v>
       </c>
       <c r="V2">
-        <v>47.775537291268158</v>
+        <v>47.775537277437884</v>
       </c>
       <c r="W2">
-        <v>41.206922062431786</v>
+        <v>41.206922054010164</v>
       </c>
       <c r="X2">
-        <v>55.069212216122175</v>
+        <v>55.069212214754629</v>
       </c>
       <c r="Y2">
-        <v>59.82141523180789</v>
+        <v>59.821415215350513</v>
       </c>
       <c r="Z2">
-        <v>59.231979170863326</v>
+        <v>59.231979150835585</v>
       </c>
       <c r="AA2">
-        <v>67.31569655034248</v>
+        <v>67.315696533436608</v>
       </c>
       <c r="AB2">
-        <v>68.976156801636648</v>
+        <v>68.976156773249969</v>
       </c>
       <c r="AC2">
-        <v>49.062806020126374</v>
+        <v>49.062806008304577</v>
       </c>
       <c r="AD2">
-        <v>70.392512355718893</v>
+        <v>70.392512321298469</v>
       </c>
       <c r="AE2">
-        <v>49.392838942842722</v>
+        <v>49.392838927982048</v>
       </c>
       <c r="AF2">
-        <v>57.560011986151082</v>
+        <v>57.560011972529971</v>
       </c>
       <c r="AG2">
-        <v>49.891348085221857</v>
+        <v>49.891348069680745</v>
       </c>
       <c r="AH2">
-        <v>59.221289464906363</v>
+        <v>59.221289448654041</v>
       </c>
       <c r="AI2">
-        <v>71.999394616210608</v>
+        <v>71.999394591440961</v>
       </c>
       <c r="AJ2">
-        <v>52.791126438972803</v>
+        <v>52.791126426371392</v>
       </c>
       <c r="AK2">
-        <v>55.713050910669196</v>
+        <v>55.713050896686482</v>
       </c>
       <c r="AL2">
-        <v>68.571362223480349</v>
+        <v>68.57136220998504</v>
       </c>
       <c r="AM2">
-        <v>59.438798959889432</v>
+        <v>59.438798947628541</v>
       </c>
       <c r="AN2">
-        <v>49.966250889478253</v>
+        <v>49.966250868235662</v>
       </c>
       <c r="AO2">
-        <v>62.008851369886273</v>
+        <v>62.008851361076559</v>
       </c>
       <c r="AP2">
-        <v>64.660811097586105</v>
+        <v>64.66081107399458</v>
       </c>
       <c r="AQ2">
-        <v>54.393596424399512</v>
+        <v>54.39359641041851</v>
       </c>
       <c r="AR2">
-        <v>81.516073138475846</v>
+        <v>81.516073128745703</v>
       </c>
       <c r="AS2">
-        <v>63.9878418554622</v>
+        <v>63.987841834680509</v>
       </c>
       <c r="AT2">
-        <v>65.891627140524605</v>
+        <v>65.89162712326069</v>
       </c>
       <c r="AU2">
-        <v>55.710899868196627</v>
+        <v>55.71089984015525</v>
       </c>
       <c r="AV2">
-        <v>48.107072360695767</v>
+        <v>48.107072335408937</v>
       </c>
       <c r="AW2">
-        <v>53.071628909451711</v>
+        <v>53.071628890759307</v>
       </c>
       <c r="AX2">
-        <v>64.11509904183545</v>
+        <v>64.115099018740253</v>
       </c>
       <c r="AY2">
-        <v>64.745287565264533</v>
+        <v>64.745287546250495</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>64.314095445690242</v>
+        <v>64.314095435445211</v>
       </c>
       <c r="C3">
-        <v>57.392685884242539</v>
+        <v>57.392685865921138</v>
       </c>
       <c r="D3">
-        <v>56.942539390750859</v>
+        <v>56.942539362319941</v>
       </c>
       <c r="E3">
-        <v>63.48303155752415</v>
+        <v>63.483031540313128</v>
       </c>
       <c r="F3">
-        <v>41.24425488740539</v>
+        <v>41.244254874087297</v>
       </c>
       <c r="G3">
-        <v>58.908647244224554</v>
+        <v>58.908647235493909</v>
       </c>
       <c r="H3">
-        <v>43.209781761522891</v>
+        <v>43.209781753323355</v>
       </c>
       <c r="I3">
-        <v>61.259466917444627</v>
+        <v>61.259466909232238</v>
       </c>
       <c r="J3">
-        <v>70.278144711427132</v>
+        <v>70.278144705940633</v>
       </c>
       <c r="K3">
-        <v>65.241731526789181</v>
+        <v>65.241731526101503</v>
       </c>
       <c r="L3">
-        <v>56.203615439846551</v>
+        <v>56.203615429137109</v>
       </c>
       <c r="M3">
-        <v>66.855512719832916</v>
+        <v>66.855280548169063</v>
       </c>
       <c r="N3">
-        <v>61.006834874152524</v>
+        <v>61.006834859898191</v>
       </c>
       <c r="O3">
-        <v>38.817674052620092</v>
+        <v>38.817674046039798</v>
       </c>
       <c r="P3">
-        <v>59.796783226765946</v>
+        <v>59.796783198666624</v>
       </c>
       <c r="Q3">
-        <v>53.884164770254692</v>
+        <v>53.88416476491944</v>
       </c>
       <c r="R3">
-        <v>44.125118241965843</v>
+        <v>44.125118230966279</v>
       </c>
       <c r="S3">
-        <v>73.164152753625601</v>
+        <v>73.164152749649872</v>
       </c>
       <c r="T3">
-        <v>62.938520896982972</v>
+        <v>62.93852088231278</v>
       </c>
       <c r="U3">
-        <v>61.498199963460365</v>
+        <v>61.498199951597975</v>
       </c>
       <c r="V3">
-        <v>53.721576078225731</v>
+        <v>53.72157606865683</v>
       </c>
       <c r="W3">
-        <v>47.390641463812422</v>
+        <v>47.39064145385052</v>
       </c>
       <c r="X3">
-        <v>49.508850066773796</v>
+        <v>49.508850056589786</v>
       </c>
       <c r="Y3">
-        <v>68.816374058916153</v>
+        <v>68.816374034629447</v>
       </c>
       <c r="Z3">
-        <v>65.088444099158409</v>
+        <v>65.088444076440808</v>
       </c>
       <c r="AA3">
-        <v>66.204201262888134</v>
+        <v>66.204201244489539</v>
       </c>
       <c r="AB3">
-        <v>65.262471099798589</v>
+        <v>65.262471075153613</v>
       </c>
       <c r="AC3">
-        <v>56.324426898082464</v>
+        <v>56.324426886896532</v>
       </c>
       <c r="AD3">
-        <v>72.101076422398691</v>
+        <v>72.101076403944489</v>
       </c>
       <c r="AE3">
-        <v>50.41404521244587</v>
+        <v>50.414045204739018</v>
       </c>
       <c r="AF3">
-        <v>60.410998975487438</v>
+        <v>60.41099895823973</v>
       </c>
       <c r="AG3">
-        <v>50.797091424214621</v>
+        <v>50.797091413602054</v>
       </c>
       <c r="AH3">
-        <v>67.674384801847381</v>
+        <v>67.674384787598385</v>
       </c>
       <c r="AI3">
-        <v>90.774886621506255</v>
+        <v>90.774886596071852</v>
       </c>
       <c r="AJ3">
-        <v>57.213156375364079</v>
+        <v>57.213156367708571</v>
       </c>
       <c r="AK3">
-        <v>63.039908186715785</v>
+        <v>63.039908163109864</v>
       </c>
       <c r="AL3">
-        <v>66.055832069108206</v>
+        <v>66.055832045127374</v>
       </c>
       <c r="AM3">
-        <v>65.267752447913807</v>
+        <v>65.267752420178439</v>
       </c>
       <c r="AN3">
-        <v>43.078689710712403</v>
+        <v>43.078689700215946</v>
       </c>
       <c r="AO3">
-        <v>64.634693725919377</v>
+        <v>64.634693683196488</v>
       </c>
       <c r="AP3">
-        <v>54.528471432191715</v>
+        <v>54.528471414115863</v>
       </c>
       <c r="AQ3">
-        <v>51.249601839673886</v>
+        <v>51.249601813728844</v>
       </c>
       <c r="AR3">
-        <v>83.463377783618313</v>
+        <v>83.463377769921024</v>
       </c>
       <c r="AS3">
-        <v>58.557041481270474</v>
+        <v>58.557041467186515</v>
       </c>
       <c r="AT3">
-        <v>63.056929635098172</v>
+        <v>63.056929607812698</v>
       </c>
       <c r="AU3">
-        <v>52.75463202567996</v>
+        <v>52.754632024765726</v>
       </c>
       <c r="AV3">
-        <v>47.657115633102158</v>
+        <v>47.657115613519927</v>
       </c>
       <c r="AW3">
-        <v>52.521228494634904</v>
+        <v>52.521228477573729</v>
       </c>
       <c r="AX3">
-        <v>57.751221983117503</v>
+        <v>57.751221968008025</v>
       </c>
       <c r="AY3">
-        <v>72.776909536666906</v>
+        <v>72.776909508300847</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>62.720978028879202</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>65.584567205119711</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>51.620103623900327</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>68.47078918206482</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>43.481408845643749</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>55.594053431030012</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>47.041147255424484</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>57.966864376996618</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>65.66325268600329</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>53.674195393183183</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>51.870634108130155</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>65.215793446084675</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>60.6583778673618</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>46.75668948809188</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>57.324628030959829</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>59.963764296316747</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>53.719528762676511</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>81.820196885201142</v>
+        <v>75.391249182871519</v>
       </c>
       <c r="T2">
         <v>62.794471346112644</v>
@@ -588,55 +477,55 @@
         <v>59.231979150835585</v>
       </c>
       <c r="AA2">
-        <v>67.315696533436608</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>68.976156773249969</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>49.062806008304577</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>70.392512321298469</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>49.392838927982048</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>57.560011972529971</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>49.891348069680745</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>59.221289448654041</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>71.999394591440961</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>52.791126426371392</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>55.713050896686482</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>68.57136220998504</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>59.438798947628541</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>49.966250868235662</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>62.008851361076559</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>64.66081107399458</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>54.39359641041851</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>81.516073128745703</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>64.314095435445211</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>57.392685865921138</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>56.942539362319941</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>63.483031540313128</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>41.244254874087297</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>58.908647235493909</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>43.209781753323355</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>61.259466909232238</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>70.278144705940633</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>65.241731526101503</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>56.203615429137109</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>66.855280548169063</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>61.006834859898191</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>38.817674046039798</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>59.796783198666624</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>53.88416476491944</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>44.125118230966279</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>73.164152749649872</v>
@@ -743,55 +629,55 @@
         <v>65.088444076440808</v>
       </c>
       <c r="AA3">
-        <v>66.204201244489539</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>65.262471075153613</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>56.324426886896532</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>72.101076403944489</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>50.414045204739018</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>60.41099895823973</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>50.797091413602054</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>67.674384787598385</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>90.774886596071852</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>57.213156367708571</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>63.039908163109864</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>66.055832045127374</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>65.267752420178439</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>43.078689700215946</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>64.634693683196488</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>54.528471414115863</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>51.249601813728844</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>83.463377769921024</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>62.720978025237251</v>
+        <v>46.75668948809188</v>
       </c>
       <c r="C2">
-        <v>62.723184251793342</v>
+        <v>53.719528762676511</v>
       </c>
       <c r="D2">
-        <v>51.620103635041872</v>
+        <v>49.966250868235662</v>
       </c>
       <c r="E2">
-        <v>68.470789191097367</v>
+        <v>54.39359641041851</v>
       </c>
       <c r="F2">
         <v>43.481408860893026</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>64.314095445690242</v>
+        <v>44.067825498757585</v>
       </c>
       <c r="C3">
-        <v>57.392685884242539</v>
+        <v>44.125118230966279</v>
       </c>
       <c r="D3">
-        <v>56.942539390750859</v>
+        <v>43.591477932075151</v>
       </c>
       <c r="E3">
-        <v>63.48303155752415</v>
+        <v>53.34815552156919</v>
       </c>
       <c r="F3">
         <v>41.24425488740539</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>62.720978025237251</v>
+        <v>59.371755917538131</v>
       </c>
       <c r="C2">
-        <v>62.723184251793342</v>
+        <v>46.75668948809188</v>
       </c>
       <c r="D2">
-        <v>51.620103635041872</v>
+        <v>59.438798947628541</v>
       </c>
       <c r="E2">
-        <v>68.470789191097367</v>
+        <v>49.966250868235662</v>
       </c>
       <c r="F2">
         <v>43.481408860893026</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>64.314095445690242</v>
+        <v>61.006834859898191</v>
       </c>
       <c r="C3">
-        <v>57.392685884242539</v>
+        <v>44.067825498757585</v>
       </c>
       <c r="D3">
-        <v>56.942539390750859</v>
+        <v>65.267752420178439</v>
       </c>
       <c r="E3">
-        <v>70.361551137184193</v>
+        <v>43.591477932075151</v>
       </c>
       <c r="F3">
         <v>41.24425488740539</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>62.720978028879202</v>
+      </c>
+      <c r="C2">
+        <v>62.723184245166514</v>
+      </c>
+      <c r="D2">
+        <v>51.620103623900327</v>
+      </c>
+      <c r="E2">
+        <v>68.47078918206482</v>
+      </c>
+      <c r="F2">
+        <v>43.481408845643749</v>
+      </c>
+      <c r="G2">
+        <v>58.460519934505967</v>
+      </c>
+      <c r="H2">
+        <v>47.041147255424484</v>
+      </c>
+      <c r="I2">
+        <v>61.417391166455474</v>
+      </c>
+      <c r="J2">
+        <v>65.66325268600329</v>
+      </c>
+      <c r="K2">
+        <v>53.674195393183183</v>
+      </c>
+      <c r="L2">
+        <v>51.247810000338482</v>
+      </c>
+      <c r="M2">
+        <v>71.690128184496032</v>
+      </c>
+      <c r="N2">
         <v>59.371755917538131</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>46.75668948809188</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>58.18772635451041</v>
+      </c>
+      <c r="Q2">
+        <v>59.963764296316747</v>
+      </c>
+      <c r="R2">
+        <v>53.719528762676511</v>
+      </c>
+      <c r="T2">
+        <v>59.697064683984195</v>
+      </c>
+      <c r="U2">
+        <v>57.699218290869233</v>
+      </c>
+      <c r="V2">
+        <v>50.569792944452658</v>
+      </c>
+      <c r="W2">
+        <v>41.206922054010164</v>
+      </c>
+      <c r="X2">
+        <v>55.069212214754629</v>
+      </c>
+      <c r="Y2">
+        <v>59.821415215350513</v>
+      </c>
+      <c r="Z2">
+        <v>59.231979150835585</v>
+      </c>
+      <c r="AA2">
+        <v>67.315696533436608</v>
+      </c>
+      <c r="AB2">
+        <v>68.976156773249969</v>
+      </c>
+      <c r="AC2">
+        <v>49.062806008304577</v>
+      </c>
+      <c r="AD2">
+        <v>70.392512321298469</v>
+      </c>
+      <c r="AE2">
+        <v>49.392838927982048</v>
+      </c>
+      <c r="AF2">
+        <v>57.560011972529971</v>
+      </c>
+      <c r="AG2">
+        <v>49.891348069680745</v>
+      </c>
+      <c r="AH2">
+        <v>59.221289448654041</v>
+      </c>
+      <c r="AI2">
+        <v>71.999394591440961</v>
+      </c>
+      <c r="AJ2">
+        <v>52.791126426371392</v>
+      </c>
+      <c r="AK2">
+        <v>55.713050896686482</v>
+      </c>
+      <c r="AL2">
+        <v>68.57136220998504</v>
+      </c>
+      <c r="AM2">
         <v>59.438798947628541</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>49.966250868235662</v>
       </c>
-      <c r="F2">
-        <v>43.481408860893026</v>
-      </c>
-      <c r="G2">
-        <v>58.460519934289259</v>
-      </c>
-      <c r="H2">
-        <v>47.041147261298228</v>
-      </c>
-      <c r="I2">
-        <v>61.41739118168725</v>
-      </c>
-      <c r="J2">
-        <v>65.663252695699271</v>
-      </c>
-      <c r="K2">
-        <v>53.674195403509742</v>
-      </c>
-      <c r="L2">
-        <v>51.247810008730191</v>
-      </c>
-      <c r="M2">
-        <v>71.690128174822078</v>
-      </c>
-      <c r="N2">
-        <v>59.37175592410857</v>
-      </c>
-      <c r="O2">
-        <v>46.756689504612332</v>
-      </c>
-      <c r="P2">
-        <v>58.187726352134057</v>
-      </c>
-      <c r="Q2">
-        <v>59.963764301521678</v>
-      </c>
-      <c r="R2">
-        <v>53.719528782944963</v>
-      </c>
-      <c r="T2">
-        <v>59.697064690766219</v>
-      </c>
-      <c r="U2">
-        <v>57.699218310984605</v>
-      </c>
-      <c r="V2">
-        <v>50.569792966243604</v>
-      </c>
-      <c r="W2">
-        <v>41.206922062431786</v>
-      </c>
-      <c r="X2">
-        <v>55.069212216122175</v>
-      </c>
-      <c r="Y2">
-        <v>59.82141523180789</v>
-      </c>
-      <c r="Z2">
-        <v>59.231979170863326</v>
-      </c>
-      <c r="AA2">
-        <v>67.31569655034248</v>
-      </c>
-      <c r="AB2">
-        <v>68.976156801636648</v>
-      </c>
-      <c r="AC2">
-        <v>49.062806020126374</v>
-      </c>
-      <c r="AD2">
-        <v>70.392512355718893</v>
-      </c>
-      <c r="AE2">
-        <v>49.392838942842722</v>
-      </c>
-      <c r="AF2">
-        <v>57.560011986151082</v>
-      </c>
-      <c r="AG2">
-        <v>49.891348085221857</v>
-      </c>
-      <c r="AH2">
-        <v>59.221289464906363</v>
-      </c>
-      <c r="AI2">
-        <v>71.999394616210608</v>
-      </c>
-      <c r="AJ2">
-        <v>52.791126438972803</v>
-      </c>
-      <c r="AK2">
-        <v>55.713050910669196</v>
-      </c>
-      <c r="AL2">
-        <v>68.571362223480349</v>
-      </c>
-      <c r="AM2">
-        <v>59.438798959889432</v>
-      </c>
-      <c r="AN2">
-        <v>49.966250889478253</v>
-      </c>
       <c r="AO2">
-        <v>62.008851369886273</v>
+        <v>62.008851361076559</v>
       </c>
       <c r="AP2">
-        <v>66.851773153569368</v>
+        <v>66.851773135454067</v>
       </c>
       <c r="AQ2">
-        <v>54.393596424399512</v>
+        <v>54.39359641041851</v>
       </c>
       <c r="AR2">
-        <v>81.516073138475846</v>
+        <v>81.516073128745703</v>
       </c>
       <c r="AS2">
-        <v>63.9878418554622</v>
+        <v>63.987841834680509</v>
       </c>
       <c r="AT2">
-        <v>65.891627140524605</v>
+        <v>65.89162712326069</v>
       </c>
       <c r="AU2">
-        <v>50.359925685679364</v>
+        <v>50.359925672363197</v>
       </c>
       <c r="AV2">
-        <v>48.107072360695767</v>
+        <v>48.107072335408937</v>
       </c>
       <c r="AW2">
-        <v>53.071628909451711</v>
+        <v>53.071628890759307</v>
       </c>
       <c r="AX2">
-        <v>64.11509904183545</v>
+        <v>64.115099018740253</v>
       </c>
       <c r="AY2">
-        <v>64.745287565264533</v>
+        <v>64.745287546250495</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>64.314095435445211</v>
+      </c>
+      <c r="C3">
+        <v>57.392685865921138</v>
+      </c>
+      <c r="D3">
+        <v>56.942539362319941</v>
+      </c>
+      <c r="E3">
+        <v>70.361551117224394</v>
+      </c>
+      <c r="F3">
+        <v>41.244254874087297</v>
+      </c>
+      <c r="G3">
+        <v>58.908647235493909</v>
+      </c>
+      <c r="H3">
+        <v>43.209781753323355</v>
+      </c>
+      <c r="I3">
+        <v>61.259466909232238</v>
+      </c>
+      <c r="J3">
+        <v>70.278144705940633</v>
+      </c>
+      <c r="K3">
+        <v>63.664729648264014</v>
+      </c>
+      <c r="L3">
+        <v>56.203615429137109</v>
+      </c>
+      <c r="M3">
+        <v>61.910208930126451</v>
+      </c>
+      <c r="N3">
         <v>61.006834859898191</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>44.067825498757585</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>59.796783198666624</v>
+      </c>
+      <c r="Q3">
+        <v>53.88416476491944</v>
+      </c>
+      <c r="R3">
+        <v>44.125118230966279</v>
+      </c>
+      <c r="S3">
+        <v>73.164152749649872</v>
+      </c>
+      <c r="T3">
+        <v>62.93852088231278</v>
+      </c>
+      <c r="U3">
+        <v>61.498199951597975</v>
+      </c>
+      <c r="V3">
+        <v>55.407210073470722</v>
+      </c>
+      <c r="W3">
+        <v>47.39064145385052</v>
+      </c>
+      <c r="X3">
+        <v>49.508850056589786</v>
+      </c>
+      <c r="Y3">
+        <v>68.816374034629447</v>
+      </c>
+      <c r="Z3">
+        <v>65.088444076440808</v>
+      </c>
+      <c r="AA3">
+        <v>66.204201244489539</v>
+      </c>
+      <c r="AB3">
+        <v>65.262471075153613</v>
+      </c>
+      <c r="AC3">
+        <v>56.324426886896532</v>
+      </c>
+      <c r="AD3">
+        <v>72.101076403944489</v>
+      </c>
+      <c r="AE3">
+        <v>50.414045204739018</v>
+      </c>
+      <c r="AF3">
+        <v>60.41099895823973</v>
+      </c>
+      <c r="AG3">
+        <v>50.797091413602054</v>
+      </c>
+      <c r="AH3">
+        <v>67.674384787598385</v>
+      </c>
+      <c r="AI3">
+        <v>67.691626575037375</v>
+      </c>
+      <c r="AJ3">
+        <v>57.213156367708571</v>
+      </c>
+      <c r="AK3">
+        <v>63.039908163109864</v>
+      </c>
+      <c r="AL3">
+        <v>66.055832045127374</v>
+      </c>
+      <c r="AM3">
         <v>65.267752420178439</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>43.591477932075151</v>
       </c>
-      <c r="F3">
-        <v>41.24425488740539</v>
-      </c>
-      <c r="G3">
-        <v>58.908647244224554</v>
-      </c>
-      <c r="H3">
-        <v>43.209781761522891</v>
-      </c>
-      <c r="I3">
-        <v>61.259466917444627</v>
-      </c>
-      <c r="J3">
-        <v>70.278144711427132</v>
-      </c>
-      <c r="K3">
-        <v>63.664729657657425</v>
-      </c>
-      <c r="L3">
-        <v>56.203615439846551</v>
-      </c>
-      <c r="M3">
-        <v>61.910364386337321</v>
-      </c>
-      <c r="N3">
-        <v>61.006834874152524</v>
-      </c>
-      <c r="O3">
-        <v>44.067825509792144</v>
-      </c>
-      <c r="P3">
-        <v>59.796783226765946</v>
-      </c>
-      <c r="Q3">
-        <v>53.884164770254692</v>
-      </c>
-      <c r="R3">
-        <v>44.125118241965843</v>
-      </c>
-      <c r="S3">
-        <v>73.164152753625601</v>
-      </c>
-      <c r="T3">
-        <v>62.938520896982972</v>
-      </c>
-      <c r="U3">
-        <v>61.498199963460365</v>
-      </c>
-      <c r="V3">
-        <v>55.407210094508102</v>
-      </c>
-      <c r="W3">
-        <v>47.390641463812422</v>
-      </c>
-      <c r="X3">
-        <v>49.508850066773796</v>
-      </c>
-      <c r="Y3">
-        <v>68.816374058916153</v>
-      </c>
-      <c r="Z3">
-        <v>65.088444099158409</v>
-      </c>
-      <c r="AA3">
-        <v>66.204201262888134</v>
-      </c>
-      <c r="AB3">
-        <v>65.262471099798589</v>
-      </c>
-      <c r="AC3">
-        <v>56.324426898082464</v>
-      </c>
-      <c r="AD3">
-        <v>72.101076422398691</v>
-      </c>
-      <c r="AE3">
-        <v>50.41404521244587</v>
-      </c>
-      <c r="AF3">
-        <v>60.410998975487438</v>
-      </c>
-      <c r="AG3">
-        <v>50.797091424214621</v>
-      </c>
-      <c r="AH3">
-        <v>67.674384801847381</v>
-      </c>
-      <c r="AI3">
-        <v>67.691626601912859</v>
-      </c>
-      <c r="AJ3">
-        <v>57.213156375364079</v>
-      </c>
-      <c r="AK3">
-        <v>63.039908186715785</v>
-      </c>
-      <c r="AL3">
-        <v>66.055832069108206</v>
-      </c>
-      <c r="AM3">
-        <v>65.267752447913807</v>
-      </c>
-      <c r="AN3">
-        <v>43.591477945892926</v>
-      </c>
       <c r="AO3">
-        <v>64.634693725919377</v>
+        <v>64.634693683196488</v>
       </c>
       <c r="AP3">
-        <v>54.528471432191715</v>
+        <v>54.528471414115863</v>
       </c>
       <c r="AQ3">
-        <v>53.348155526443783</v>
+        <v>53.34815552156919</v>
       </c>
       <c r="AR3">
-        <v>83.463377783618313</v>
+        <v>83.463377769921024</v>
       </c>
       <c r="AS3">
-        <v>58.557041481270474</v>
+        <v>58.557041467186515</v>
       </c>
       <c r="AT3">
-        <v>63.056929635098172</v>
+        <v>63.056929607812698</v>
       </c>
       <c r="AU3">
-        <v>53.341777524211793</v>
+        <v>53.341777541448934</v>
       </c>
       <c r="AV3">
-        <v>47.657115633102158</v>
+        <v>47.657115613519927</v>
       </c>
       <c r="AW3">
-        <v>52.521228494634904</v>
+        <v>52.521228477573729</v>
       </c>
       <c r="AX3">
-        <v>57.751221983117503</v>
+        <v>57.751221968008025</v>
       </c>
       <c r="AY3">
-        <v>72.776909536666906</v>
+        <v>72.776909508300847</v>
       </c>
     </row>
   </sheetData>
